--- a/2_output/stopwords.xlsx
+++ b/2_output/stopwords.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uckert\R_Projects\Terminology\2_output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99939BBE-C6E6-437F-9294-D43F9C2DE88D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EDD57-E459-43C6-AC06-E56B67D2F12B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4762,12 +4757,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07C9B644-E531-43B0-8977-B17E52B60401}" name="Table1" displayName="Table1" ref="A1:C1542" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07C9B644-E531-43B0-8977-B17E52B60401}" name="Table1" displayName="Table1" ref="A1:C1542" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C1542" xr:uid="{890BE2F7-9946-4374-9679-E1B9FC7AE169}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{99713841-32C5-4F39-8D11-3C7BCA31A353}" name="stop" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{03C31ADC-E430-4279-AD2E-126DE2D604C7}" name="stop_type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BD1737AA-9379-43AB-AC02-44BD08AE8550}" name="origin" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{99713841-32C5-4F39-8D11-3C7BCA31A353}" name="stop" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{03C31ADC-E430-4279-AD2E-126DE2D604C7}" name="stop_type" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BD1737AA-9379-43AB-AC02-44BD08AE8550}" name="origin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5054,7 +5049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
